--- a/.gitbook/assets/TheAtlas UAT Test Shopping & Ticketing Services Only Template.xlsx
+++ b/.gitbook/assets/TheAtlas UAT Test Shopping & Ticketing Services Only Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangwei\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925B8B7-690E-4E89-90D6-8A91E5B62F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E9B47-ED97-4594-B9D9-75BC39934F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C553A94-E5D0-4375-8F0F-568CCBBD0110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C553A94-E5D0-4375-8F0F-568CCBBD0110}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>PassengerType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Without Baggage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>With Multiple Baggage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Roundtrip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,18 +88,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JKT-SUB  2-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Samples</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNL-CEB  2-20/2-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>orderNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,7 +100,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNL-CEB  2-20</t>
+    <t>Without baggage ancillary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JKT-SUB  depart at 7days later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNL-CEB   depart at 7days later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNL-HKG  depart at 7days later/return at 10 days later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With baggage ancillary
+1ADT(MALE) outbound 1 baggage
+1ADT(FEMALE) inbound 1 baggage
+1CHD(MALE)  both bounds 1 baggage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With baggage ancillary for all
+1ADT(MALE)+1ADT(FEMALE)+1CHD(FEMALE)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +197,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +518,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,8 +527,8 @@
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="50.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -538,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -558,21 +569,21 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -580,17 +591,17 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -601,16 +612,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
